--- a/unis_output_cor.xlsx
+++ b/unis_output_cor.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="275">
   <si>
     <t>nom</t>
   </si>
@@ -797,6 +797,45 @@
   </si>
   <si>
     <t>Management juridique et fiscal, informatique et réseaux, management et sciences de gestion.</t>
+  </si>
+  <si>
+    <t>Cité Keur Gorgui Lot 72AD, Dakar</t>
+  </si>
+  <si>
+    <t>Journalisme, communication.</t>
+  </si>
+  <si>
+    <t>Keur Yakaar</t>
+  </si>
+  <si>
+    <t>Route de Ngaparou, Somone</t>
+  </si>
+  <si>
+    <t>Centre de formation, Hôtel restaurant d'application</t>
+  </si>
+  <si>
+    <t>ESGIB / École Supérieure de génie Industriel et biologique</t>
+  </si>
+  <si>
+    <t>Villa N°10059, Sacré Cœur 3 extension, Dakar</t>
+  </si>
+  <si>
+    <t>Institut Edge</t>
+  </si>
+  <si>
+    <t>Route de la Pyrotechnie Prolongée, Dakar</t>
+  </si>
+  <si>
+    <t>Institut privé de formation supérieure, agréé par le ministère de l’Enseignement supérieur et de la recherche. Licence, master, doctorat en droit, économie, gestion.</t>
+  </si>
+  <si>
+    <t>IHE / Institut des Hautes Etudes</t>
+  </si>
+  <si>
+    <t>Sacré Coeur 3 en face BEM DAKAR et NVA Automobile, Dakar</t>
+  </si>
+  <si>
+    <t>L'Institut des Hautes Etudes Dakar est un établissement d'enseignement supérieur faisant partie du groupe IHE.</t>
   </si>
   <si>
     <t>e</t>
@@ -3211,9 +3250,15 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="B92" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -3224,10 +3269,18 @@
       <c r="L92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="1"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -3238,10 +3291,18 @@
       <c r="L93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="1"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3252,10 +3313,18 @@
       <c r="L94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="1"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -3266,10 +3335,18 @@
       <c r="L95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="1"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -3278,7 +3355,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/unis_output_cor.xlsx
+++ b/unis_output_cor.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awtqu\Documents\python\Orientation-sn\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A20AFE-1F6E-4BD0-9364-59215D5CBE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="259">
   <si>
     <t>nom</t>
   </si>
@@ -788,54 +794,6 @@
   </si>
   <si>
     <t>Enseignement supérieur et professionnel, centre de certification agréé. Formation continue, intensive, séminaires pro – Licence et master pro : arts graphiques , audiovisuel, communication digitale.</t>
-  </si>
-  <si>
-    <t>Groupe AFI / l’université de l’entreprise</t>
-  </si>
-  <si>
-    <t>Rue G, Zone B, Dakar</t>
-  </si>
-  <si>
-    <t>Management juridique et fiscal, informatique et réseaux, management et sciences de gestion.</t>
-  </si>
-  <si>
-    <t>Cité Keur Gorgui Lot 72AD, Dakar</t>
-  </si>
-  <si>
-    <t>Journalisme, communication.</t>
-  </si>
-  <si>
-    <t>Keur Yakaar</t>
-  </si>
-  <si>
-    <t>Route de Ngaparou, Somone</t>
-  </si>
-  <si>
-    <t>Centre de formation, Hôtel restaurant d'application</t>
-  </si>
-  <si>
-    <t>ESGIB / École Supérieure de génie Industriel et biologique</t>
-  </si>
-  <si>
-    <t>Villa N°10059, Sacré Cœur 3 extension, Dakar</t>
-  </si>
-  <si>
-    <t>Institut Edge</t>
-  </si>
-  <si>
-    <t>Route de la Pyrotechnie Prolongée, Dakar</t>
-  </si>
-  <si>
-    <t>Institut privé de formation supérieure, agréé par le ministère de l’Enseignement supérieur et de la recherche. Licence, master, doctorat en droit, économie, gestion.</t>
-  </si>
-  <si>
-    <t>IHE / Institut des Hautes Etudes</t>
-  </si>
-  <si>
-    <t>Sacré Coeur 3 en face BEM DAKAR et NVA Automobile, Dakar</t>
-  </si>
-  <si>
-    <t>L'Institut des Hautes Etudes Dakar est un établissement d'enseignement supérieur faisant partie du groupe IHE.</t>
   </si>
   <si>
     <t>e</t>
@@ -844,8 +802,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -911,34 +868,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -949,10 +903,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -990,71 +944,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1082,7 +1036,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1105,11 +1059,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1118,13 +1072,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1134,7 +1088,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1143,7 +1097,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1152,7 +1106,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1160,10 +1114,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1228,31 +1182,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1272,7 +1218,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1294,7 +1240,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1316,7 +1262,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1338,7 +1284,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1360,7 +1306,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1382,7 +1328,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1404,7 +1350,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1426,7 +1372,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1448,7 +1394,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1470,7 +1416,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1492,7 +1438,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1514,7 +1460,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1536,7 +1482,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1558,7 +1504,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1580,7 +1526,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1602,7 +1548,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1624,7 +1570,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1646,7 +1592,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1668,7 +1614,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1690,7 +1636,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1712,7 +1658,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1734,7 +1680,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1756,7 +1702,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1778,7 +1724,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1800,7 +1746,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1822,7 +1768,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1844,7 +1790,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1866,7 +1812,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1888,7 +1834,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1910,7 +1856,7 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1932,7 +1878,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1954,7 +1900,7 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1976,7 +1922,7 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1998,7 +1944,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2020,7 +1966,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2042,7 +1988,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2064,7 +2010,7 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2086,7 +2032,7 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2108,7 +2054,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2130,7 +2076,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2152,7 +2098,7 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2174,7 +2120,7 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2194,7 +2140,7 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2216,7 +2162,7 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2236,7 +2182,7 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2258,7 +2204,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2280,7 +2226,7 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2302,7 +2248,7 @@
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2324,7 +2270,7 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2346,7 +2292,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2368,7 +2314,7 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2390,7 +2336,7 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2412,7 +2358,7 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2434,7 +2380,7 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2456,7 +2402,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2476,7 +2422,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2498,7 +2444,7 @@
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2520,7 +2466,7 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2542,7 +2488,7 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -2564,7 +2510,7 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2586,7 +2532,7 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -2608,7 +2554,7 @@
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -2630,7 +2576,7 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2652,7 +2598,7 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2674,7 +2620,7 @@
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -2696,7 +2642,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2718,7 +2664,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2740,7 +2686,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -2762,7 +2708,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -2784,7 +2730,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -2806,7 +2752,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -2828,7 +2774,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2850,7 +2796,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -2872,7 +2818,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -2894,7 +2840,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+    <row r="76" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -2916,7 +2862,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+    <row r="77" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -2938,7 +2884,7 @@
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+    <row r="78" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -2960,7 +2906,7 @@
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+    <row r="79" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -2982,7 +2928,7 @@
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+    <row r="80" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -3004,7 +2950,7 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+    <row r="81" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -3026,7 +2972,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+    <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -3048,7 +2994,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+    <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -3070,7 +3016,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+    <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -3092,7 +3038,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+    <row r="85" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -3114,7 +3060,7 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+    <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -3136,7 +3082,7 @@
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+    <row r="87" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -3158,7 +3104,7 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+    <row r="88" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -3180,7 +3126,7 @@
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+    <row r="89" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -3202,7 +3148,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="20.25">
+    <row r="90" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -3224,19 +3170,11 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="1">
-        <v>90</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>260</v>
-      </c>
+    <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -3246,19 +3184,11 @@
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="1">
-        <v>91</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>262</v>
-      </c>
+    <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -3268,19 +3198,11 @@
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="1">
-        <v>92</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>265</v>
-      </c>
+    <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -3290,19 +3212,11 @@
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="1">
-        <v>93</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>186</v>
-      </c>
+    <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3312,19 +3226,11 @@
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="1">
-        <v>94</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>270</v>
-      </c>
+    <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -3334,19 +3240,11 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="1">
-        <v>95</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>273</v>
-      </c>
+    <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -3355,7 +3253,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/unis_output_cor.xlsx
+++ b/unis_output_cor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awtqu\Documents\python\Orientation-sn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A20AFE-1F6E-4BD0-9364-59215D5CBE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E60EBF-FCC5-42FC-9A61-4266202B1A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="274">
   <si>
     <t>nom</t>
   </si>
@@ -796,14 +796,59 @@
     <t>Enseignement supérieur et professionnel, centre de certification agréé. Formation continue, intensive, séminaires pro – Licence et master pro : arts graphiques , audiovisuel, communication digitale.</t>
   </si>
   <si>
+    <t>Keur Yakaar</t>
+  </si>
+  <si>
+    <t>Route de Ngaparou, Somone</t>
+  </si>
+  <si>
+    <t>Centre de formation, Hôtel restaurant d'application</t>
+  </si>
+  <si>
+    <t>Route de la Pyrotechnie Prolongée, Dakar</t>
+  </si>
+  <si>
+    <t>Institut privé de formation supérieure, agréé par le ministère de l’Enseignement supérieur et de la recherche. Licence, master, doctorat en droit, économie, gestion.</t>
+  </si>
+  <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>Institut Edge</t>
+  </si>
+  <si>
+    <t>Rue de Ziguinchor, Boulevard du Sud, Point E, Dakar</t>
+  </si>
+  <si>
+    <t>École professionnelle d'architecture. Formations DUT en architecture, licence professionnelle et master pro.</t>
+  </si>
+  <si>
+    <t>Webber Institute of Technology</t>
+  </si>
+  <si>
+    <t>Liberté 6 extension, cité panoramique, Dakar</t>
+  </si>
+  <si>
+    <t>Le Webber Institute of Technology (WIT) est un institut de Blended Learning qui forme ses étudiants dans les métiers les plus porteurs : Data Science, éducation, infographie, marketing, programmation, sécurité de l’information.</t>
+  </si>
+  <si>
+    <t>Collège d’architecture universitaire</t>
+  </si>
+  <si>
+    <t>Finama Business School</t>
+  </si>
+  <si>
+    <t>Sicap Liberté 1 N°1097, Dakar</t>
+  </si>
+  <si>
+    <t>Finama Business School propose des diplômes de BTS, licence, master, et des formations sur mesure dans les filières suivantes : Commerce International, Informatique de Gestion, Marketing et Communication, Comptabilité, Secrétariat bureautique, Transport logistique, Droit des affaires…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,9 +863,27 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -864,25 +927,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1188,2075 +1260,2116 @@
   </sheetPr>
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E88" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="A58" s="8">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="A60" s="8">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="8">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="A64" s="8">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="8">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="8">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="8">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="A72" s="8">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="A74" s="8">
         <v>73</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="A76" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="A78" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="A80" s="8">
         <v>79</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="A82" s="8">
         <v>81</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="A84" s="8">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
     </row>
     <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
+      <c r="A86" s="8">
         <v>85</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
     </row>
     <row r="87" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4">
+      <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
     </row>
     <row r="88" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
+      <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4">
+      <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
     </row>
     <row r="91" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
     </row>
     <row r="92" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
     </row>
     <row r="93" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
     </row>
     <row r="94" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
     </row>
     <row r="95" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
     </row>
     <row r="96" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3" t="s">
-        <v>258</v>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/unis_output_cor.xlsx
+++ b/unis_output_cor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awtqu\Documents\python\Orientation-sn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E60EBF-FCC5-42FC-9A61-4266202B1A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83836473-9500-45B4-AAEE-C3500158C1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="273">
   <si>
     <t>nom</t>
   </si>
@@ -809,9 +809,6 @@
   </si>
   <si>
     <t>Institut privé de formation supérieure, agréé par le ministère de l’Enseignement supérieur et de la recherche. Licence, master, doctorat en droit, économie, gestion.</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
   <si>
     <t>Institut Edge</t>
@@ -1260,8 +1257,8 @@
   </sheetPr>
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E88" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,7 +3266,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>261</v>
@@ -3291,13 +3288,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C93" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>266</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -3313,13 +3310,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="D94" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -3335,13 +3332,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -3364,9 +3361,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
-      <c r="L96" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="L96" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/unis_output_cor.xlsx
+++ b/unis_output_cor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awtqu\Documents\python\Orientation-sn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83836473-9500-45B4-AAEE-C3500158C1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FCD582-4696-462E-B506-19FE34D35295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="L96" sqref="L96"/>
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
